--- a/biology/Médecine/ANGPTL4/ANGPTL4.xlsx
+++ b/biology/Médecine/ANGPTL4/ANGPTL4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ANGPTL4 (pour « angiopoïetine like 4 ») est une protéine intervenant dans le métabolisme lipidique. Son gène est ANGPTL4 situé sur le chromosome 19 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de la lipoprotéine lipase[5], en perturbant la dimérisation de cette dernière[6]. Il diminue également l'activité de la lipase pancréatique[7].
-Après sa synthèse, elle se rassemble en dimère ou en tétramère avant d'être clivé, l'extrémité N-terminale conservant son caractère d'oligomère[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de la lipoprotéine lipase, en perturbant la dimérisation de cette dernière. Il diminue également l'activité de la lipase pancréatique.
+Après sa synthèse, elle se rassemble en dimère ou en tétramère avant d'être clivé, l'extrémité N-terminale conservant son caractère d'oligomère. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines mutations du gène entraînent une diminution du taux de triglycérides dans le sang et une augmentation du HDL cholestérol. La plus fréquente, appelée E40K, est présente dans environ 3% de la population occidentale[9], avec un risque moindre de survenue d'une maladie cardio-vasculaire[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines mutations du gène entraînent une diminution du taux de triglycérides dans le sang et une augmentation du HDL cholestérol. La plus fréquente, appelée E40K, est présente dans environ 3% de la population occidentale, avec un risque moindre de survenue d'une maladie cardio-vasculaire,.
 </t>
         </is>
       </c>
